--- a/py12/students.xlsx
+++ b/py12/students.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -323,27 +323,36 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -409,7 +418,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -422,7 +431,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -509,7 +522,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -533,7 +546,7 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2"/>
@@ -548,7 +561,7 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2"/>
@@ -563,7 +576,7 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2"/>
@@ -578,7 +591,7 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2"/>
@@ -593,7 +606,7 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2"/>
@@ -608,7 +621,7 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2"/>
@@ -623,7 +636,7 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2"/>
@@ -638,7 +651,7 @@
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="2"/>
@@ -653,7 +666,7 @@
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="2"/>
@@ -668,7 +681,7 @@
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="2"/>
@@ -683,7 +696,7 @@
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="2"/>
@@ -698,7 +711,7 @@
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2"/>
@@ -713,7 +726,7 @@
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="2"/>
@@ -728,7 +741,7 @@
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="2"/>
@@ -743,7 +756,7 @@
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="2"/>
@@ -758,7 +771,7 @@
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="2"/>
@@ -773,7 +786,7 @@
       <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="2"/>
@@ -788,7 +801,7 @@
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="2"/>
@@ -803,7 +816,7 @@
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="2"/>
@@ -818,7 +831,7 @@
       <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="2"/>
@@ -833,7 +846,7 @@
       <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="2"/>
@@ -848,7 +861,7 @@
       <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="2"/>
@@ -863,7 +876,7 @@
       <c r="B24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="2"/>
@@ -878,7 +891,7 @@
       <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="2"/>
@@ -893,7 +906,7 @@
       <c r="B26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="2"/>
@@ -908,7 +921,7 @@
       <c r="B27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="2"/>
@@ -923,7 +936,7 @@
       <c r="B28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="2"/>
@@ -938,7 +951,7 @@
       <c r="B29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D29" s="2"/>
@@ -953,7 +966,7 @@
       <c r="B30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="2"/>
@@ -968,7 +981,7 @@
       <c r="B31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D31" s="2"/>
@@ -983,7 +996,7 @@
       <c r="B32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D32" s="2"/>
@@ -998,7 +1011,7 @@
       <c r="B33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D33" s="2"/>
@@ -1013,7 +1026,7 @@
       <c r="B34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="2"/>
@@ -1028,7 +1041,7 @@
       <c r="B35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="2"/>
@@ -1043,7 +1056,7 @@
       <c r="B36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D36" s="2"/>
@@ -1058,7 +1071,7 @@
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D37" s="2"/>
@@ -1073,7 +1086,7 @@
       <c r="B38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D38" s="2"/>
@@ -1088,7 +1101,7 @@
       <c r="B39" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D39" s="2"/>
@@ -1103,7 +1116,7 @@
       <c r="B40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D40" s="2"/>
@@ -1118,7 +1131,7 @@
       <c r="B41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D41" s="2"/>
@@ -1133,7 +1146,7 @@
       <c r="B42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D42" s="2"/>
@@ -1148,7 +1161,7 @@
       <c r="B43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D43" s="2"/>
@@ -1163,7 +1176,7 @@
       <c r="B44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D44" s="2"/>
@@ -1178,7 +1191,7 @@
       <c r="B45" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D45" s="2"/>
@@ -1193,7 +1206,7 @@
       <c r="B46" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D46" s="2"/>
@@ -1208,7 +1221,7 @@
       <c r="B47" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D47" s="2"/>
@@ -1223,7 +1236,7 @@
       <c r="B48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D48" s="2"/>
@@ -1238,7 +1251,7 @@
       <c r="B49" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D49" s="2"/>
@@ -1253,7 +1266,7 @@
       <c r="B50" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D50" s="2"/>
@@ -1268,7 +1281,7 @@
       <c r="B51" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D51" s="2"/>
@@ -1283,7 +1296,7 @@
       <c r="B52" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D52" s="2"/>
@@ -1298,7 +1311,7 @@
       <c r="B53" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D53" s="2"/>
@@ -1313,7 +1326,7 @@
       <c r="B54" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D54" s="2"/>
@@ -1328,7 +1341,7 @@
       <c r="B55" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D55" s="2"/>
@@ -1343,7 +1356,7 @@
       <c r="B56" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D56" s="2"/>
@@ -1358,7 +1371,7 @@
       <c r="B57" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D57" s="2"/>
@@ -1373,7 +1386,7 @@
       <c r="B58" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D58" s="2"/>
@@ -1388,7 +1401,7 @@
       <c r="B59" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D59" s="2"/>
@@ -1403,7 +1416,7 @@
       <c r="B60" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D60" s="2"/>
@@ -1418,7 +1431,7 @@
       <c r="B61" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D61" s="2"/>
@@ -1433,7 +1446,7 @@
       <c r="B62" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D62" s="2"/>
@@ -1448,7 +1461,7 @@
       <c r="B63" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D63" s="2"/>
@@ -1463,7 +1476,7 @@
       <c r="B64" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D64" s="2"/>
@@ -1478,7 +1491,7 @@
       <c r="B65" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D65" s="2"/>
@@ -1493,7 +1506,7 @@
       <c r="B66" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1504,7 +1517,7 @@
       <c r="B67" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1515,7 +1528,7 @@
       <c r="B68" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1526,7 +1539,7 @@
       <c r="B69" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1537,7 +1550,7 @@
       <c r="B70" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1548,7 +1561,7 @@
       <c r="B71" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1559,12 +1572,12 @@
       <c r="B72" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="3"/>
+      <c r="B73" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
